--- a/app/src/main/resources/spring-excel-upload-product.xlsx
+++ b/app/src/main/resources/spring-excel-upload-product.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>상품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,39 @@
   <si>
     <t>이미지url</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야구공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고의 축구공 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고의 야구공 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고의 농구공 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1614632537190-23e4146777db?ixid=MXwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHw%3D&amp;ixlib=rb-1.2.1&amp;auto=format&amp;fit=crop&amp;w=1050&amp;q=80</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1600116269531-22103b53f4b8?ixid=MXwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHw%3D&amp;ixlib=rb-1.2.1&amp;auto=format&amp;fit=crop&amp;w=656&amp;q=80</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1518989229647-6377f907a0b2?ixlib=rb-1.2.1&amp;ixid=MXwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHw%3D&amp;auto=format&amp;fit=crop&amp;w=1053&amp;q=80</t>
   </si>
 </sst>
 </file>
@@ -89,8 +122,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -373,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -399,6 +435,57 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50000</v>
+      </c>
+      <c r="C2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C3">
+        <v>0.8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>35000</v>
+      </c>
+      <c r="C4">
+        <v>3.1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/app/src/main/resources/spring-excel-upload-product.xlsx
+++ b/app/src/main/resources/spring-excel-upload-product.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whosegoodsdev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whosegoodsdev\IdeaProjects\Springboot_Excel-1\app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -46,37 +46,37 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>야구공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>농구공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고의 축구공 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고의 야구공 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고의 농구공 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1614632537190-23e4146777db?ixid=MXwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHw%3D&amp;ixlib=rb-1.2.1&amp;auto=format&amp;fit=crop&amp;w=1050&amp;q=80</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1600116269531-22103b53f4b8?ixid=MXwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHw%3D&amp;ixlib=rb-1.2.1&amp;auto=format&amp;fit=crop&amp;w=656&amp;q=80</t>
+  </si>
+  <si>
+    <t>https://images.unsplash.com/photo-1518989229647-6377f907a0b2?ixlib=rb-1.2.1&amp;ixid=MXwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHw%3D&amp;auto=format&amp;fit=crop&amp;w=1053&amp;q=80</t>
+  </si>
+  <si>
     <t>축구공</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>야구공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>농구공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고의 축구공 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고의 야구공 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최고의 농구공 입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1614632537190-23e4146777db?ixid=MXwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHw%3D&amp;ixlib=rb-1.2.1&amp;auto=format&amp;fit=crop&amp;w=1050&amp;q=80</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1600116269531-22103b53f4b8?ixid=MXwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHw%3D&amp;ixlib=rb-1.2.1&amp;auto=format&amp;fit=crop&amp;w=656&amp;q=80</t>
-  </si>
-  <si>
-    <t>https://images.unsplash.com/photo-1518989229647-6377f907a0b2?ixlib=rb-1.2.1&amp;ixid=MXwxMjA3fDB8MHxwaG90by1wYWdlfHx8fGVufDB8fHw%3D&amp;auto=format&amp;fit=crop&amp;w=1053&amp;q=80</t>
   </si>
 </sst>
 </file>
@@ -126,7 +126,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -412,84 +412,87 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="24.75" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="A2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B2" s="1">
         <v>50000</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>20000</v>
-      </c>
-      <c r="C3">
-        <v>0.8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
+        <v>15000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="A4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>35000</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>3.1</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/src/main/resources/spring-excel-upload-product.xlsx
+++ b/app/src/main/resources/spring-excel-upload-product.xlsx
@@ -412,7 +412,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
